--- a/results/evaluated_evaluate.xlsx
+++ b/results/evaluated_evaluate.xlsx
@@ -482,40 +482,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.2395</v>
+        <v>44.2466</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.7906</t>
+          <t>0.7878</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.6573</t>
+          <t>0.6723</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.7166</t>
+          <t>0.7245</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.7974</t>
+          <t>0.7809</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6595</t>
+          <t>0.6645</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.7207</t>
+          <t>0.7168</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.004</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="3">
@@ -525,40 +525,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.9416</v>
+        <v>62.9442</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.8223</t>
+          <t>0.8179</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.8424</t>
+          <t>0.823</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.8317</t>
+          <t>0.8199</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.8182</t>
+          <t>0.816</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8344</t>
+          <t>0.8216</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.8257</t>
+          <t>0.8183</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.0059</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="4">
@@ -568,40 +568,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.2771</v>
+        <v>56.2893</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7532</t>
+          <t>0.7493</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.7257</t>
+          <t>0.7369</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.7383</t>
+          <t>0.7421</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.7535</t>
+          <t>0.7503</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7308</t>
+          <t>0.7236</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.741</t>
+          <t>0.7359</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.0027</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="5">
@@ -611,40 +611,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.3516</v>
+        <v>72.36790000000001</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8286</t>
+          <t>0.8304</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.9047</t>
+          <t>0.8959</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.8646</t>
+          <t>0.8617</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.8305</t>
+          <t>0.8268</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9077</t>
+          <t>0.899</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.8671</t>
+          <t>0.8611</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-0.0025</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
   </sheetData>
